--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3936.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3936.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Colin de Grandhomme</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3390</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +817,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>22/02/2017</t>
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +916,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1015,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1126,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1116,7 +1178,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1532,7 +1594,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1572,7 +1634,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -1580,7 +1641,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1632,7 +1693,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1672,7 +1733,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -1680,7 +1740,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1732,7 +1792,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1772,7 +1832,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -1780,7 +1839,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1820,7 +1879,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -1828,7 +1886,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1880,7 +1938,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1920,7 +1978,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -1928,7 +1985,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1980,7 +2037,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2020,7 +2077,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -2028,7 +2084,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2080,7 +2136,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2132,7 +2188,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2184,7 +2240,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2236,7 +2292,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2288,7 +2344,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2340,7 +2396,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2392,7 +2448,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2444,7 +2500,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2496,7 +2552,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2548,7 +2604,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2600,7 +2656,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2640,7 +2696,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>29/03/2022</t>
@@ -2648,7 +2703,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4563</t>
+          <t>4563</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2700,7 +2755,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4566</t>
+          <t>4566</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2752,7 +2807,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4568</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2791,7 +2846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2813,7 +2868,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2850,7 +2905,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3390</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2887,7 +2942,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2924,7 +2979,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2961,7 +3016,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2998,7 +3053,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3035,7 +3090,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3072,7 +3127,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3109,7 +3164,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3146,7 +3201,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3183,7 +3238,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3220,7 +3275,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3257,7 +3312,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3294,7 +3349,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3331,7 +3386,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3368,7 +3423,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3405,7 +3460,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3442,7 +3497,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3479,7 +3534,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3516,7 +3571,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3553,7 +3608,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3590,7 +3645,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3627,7 +3682,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3664,7 +3719,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3701,7 +3756,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4248</t>
+          <t>4248</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3738,7 +3793,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4249</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3775,7 +3830,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3812,7 +3867,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3849,7 +3904,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3886,7 +3941,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3923,7 +3978,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3960,7 +4015,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3997,7 +4052,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4034,7 +4089,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4071,7 +4126,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4108,7 +4163,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4145,7 +4200,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4182,7 +4237,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4219,7 +4274,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4256,7 +4311,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4293,7 +4348,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4330,7 +4385,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4367,7 +4422,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4404,7 +4459,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4563</t>
+          <t>4563</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4441,7 +4496,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4566</t>
+          <t>4566</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4478,7 +4533,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4568</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4504,6 +4559,467 @@
       <c r="G46" t="inlineStr">
         <is>
           <t>1/20</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11.21%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.49%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>19.33%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.37%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3936.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3936.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4622,9 +4623,6 @@
       <c r="B2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4640,9 +4638,6 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4688,9 +4683,6 @@
       <c r="B5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4703,15 +4695,391 @@
           <t>4311</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.49%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>19.33%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.37%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4719,15 +5087,14 @@
           <t>4315</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4737,29 +5104,8 @@
           <t>4328</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>24.49%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4769,13 +5115,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4785,13 +5124,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4799,25 +5131,12 @@
           <t>4341</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4827,13 +5146,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4843,13 +5155,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4859,13 +5164,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4875,13 +5173,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4891,13 +5182,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4905,29 +5189,12 @@
           <t>4410</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>19.33%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4935,29 +5202,12 @@
           <t>4423</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.37%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4965,15 +5215,14 @@
           <t>4563</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -4983,27 +5232,14 @@
           <t>4566</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>7</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6.06%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5015,13 +5251,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3936.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3936.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4623,6 +4622,9 @@
       <c r="B2" t="n">
         <v>6</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4638,6 +4640,9 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4683,6 +4688,9 @@
       <c r="B5" t="n">
         <v>7</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4695,6 +4703,10 @@
           <t>4311</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4710,6 +4722,9 @@
       <c r="B7" t="n">
         <v>7</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4752,6 +4767,10 @@
           <t>4333</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4764,6 +4783,10 @@
           <t>4337</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4789,6 +4812,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4801,6 +4825,10 @@
           <t>4346</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4813,6 +4841,10 @@
           <t>4353</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4825,6 +4857,10 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4837,6 +4873,10 @@
           <t>4402</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4849,6 +4889,10 @@
           <t>4406</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4924,6 +4968,9 @@
       <c r="B19" t="n">
         <v>7</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -4966,291 +5013,15 @@
           <t>4568</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4250</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4251</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4252</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4311</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4328</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4563</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4566</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4568</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3936.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3936.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -817,6 +816,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>22/02/2017</t>
@@ -916,6 +916,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -1015,6 +1016,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -1634,6 +1636,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -1733,6 +1736,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -1832,6 +1836,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -1879,6 +1884,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -1978,6 +1984,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -2077,6 +2084,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -2696,6 +2704,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>29/03/2022</t>
@@ -4565,465 +4574,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4250</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4251</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4252</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>11.21%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4311</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4315</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4328</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>24.49%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4337</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>19.33%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13.37%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4563</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4566</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6.06%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4568</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3936.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3936.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -816,7 +817,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>22/02/2017</t>
@@ -916,7 +916,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -1016,7 +1015,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -1636,7 +1634,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -1736,7 +1733,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>31/01/2019</t>
@@ -1836,7 +1832,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -1884,7 +1879,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -1984,7 +1978,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -2084,7 +2077,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -2704,7 +2696,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>29/03/2022</t>
@@ -4574,4 +4565,989 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3390</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>17.48%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.58%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3992</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>16.43%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3997</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.42%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10.70%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4137</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4138</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4139</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4146</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.78%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.69%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4223</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5.07%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11.21%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.49%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>19.33%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13.37%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4563</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4566</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>